--- a/hebrewOutputs/hebrew82Comperation_7_Common_alpha=0.22.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_7_Common_alpha=0.22.xlsx
@@ -34,15 +34,15 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בסדר. בסדר. </t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בסדר. בסדר. </t>
-  </si>
-  <si>
     <t>הורה:</t>
   </si>
   <si>
@@ -127,6 +127,9 @@
     <t>סכרת נעורים?</t>
   </si>
   <si>
+    <t>disagree</t>
+  </si>
+  <si>
     <t xml:space="preserve">כן. </t>
   </si>
   <si>
@@ -169,9 +172,6 @@
     <t xml:space="preserve">תשמע, נראה לי שיש לכם איזשהי טעות, </t>
   </si>
   <si>
-    <t>disagree</t>
-  </si>
-  <si>
     <t>אני לא יודע איך קפצתם כל כך מהר לאופציה הזאת.</t>
   </si>
   <si>
@@ -223,6 +223,9 @@
     <t>תשמע,</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">אני יודע שזה מפתיע אותך </t>
   </si>
   <si>
@@ -308,9 +311,6 @@
   </si>
   <si>
     <t>... הוא ילד בן חמש.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t>(לא נשמע) להגיד לי שעכשיו כל יום הולדת שהוא יילך הוא יצטרך להשגיח לא לאכול מהעוגה לא לאכול מהממתקים בזמן שכל שאר החברים שלו אוכלים כמה שבא להם?</t>
@@ -733,21 +733,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -775,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -789,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -803,10 +803,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -831,10 +831,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -845,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -862,7 +862,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -873,10 +873,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -887,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -915,10 +915,10 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -943,10 +943,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -960,7 +960,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -971,7 +971,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -988,7 +988,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -999,7 +999,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1007,21 +1007,21 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1044,12 +1044,12 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1063,24 +1063,24 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
@@ -1091,35 +1091,35 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1128,18 +1128,18 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -1156,18 +1156,18 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1178,10 +1178,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1220,10 +1220,10 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1237,10 +1237,10 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1248,10 +1248,10 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1265,10 +1265,10 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1276,10 +1276,10 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1293,10 +1293,10 @@
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1310,7 +1310,7 @@
         <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1321,10 +1321,10 @@
         <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1332,10 +1332,10 @@
         <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1352,7 +1352,7 @@
         <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1366,7 +1366,7 @@
         <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1377,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1385,41 +1385,41 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1441,27 +1441,27 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -1483,21 +1483,21 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -1506,12 +1506,12 @@
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -1525,27 +1525,27 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -1576,12 +1576,12 @@
         <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -1590,88 +1590,88 @@
         <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -1679,27 +1679,27 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1707,21 +1707,21 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -1730,18 +1730,18 @@
         <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -1749,16 +1749,16 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1769,7 +1769,7 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1794,10 +1794,10 @@
         <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -1811,10 +1811,10 @@
         <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1822,13 +1822,13 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1836,13 +1836,13 @@
         <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1853,10 +1853,10 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1870,7 +1870,7 @@
         <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1881,10 +1881,10 @@
         <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1895,10 +1895,10 @@
         <v>109</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1909,10 +1909,10 @@
         <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1923,10 +1923,10 @@
         <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1934,13 +1934,13 @@
         <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1948,13 +1948,13 @@
         <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1962,13 +1962,13 @@
         <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1993,7 +1993,7 @@
         <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2007,10 +2007,10 @@
         <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2018,10 +2018,10 @@
         <v>119</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
